--- a/化工/eta/PTA加工费_月度数据.xlsx
+++ b/化工/eta/PTA加工费_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>245.2</v>
+        <v>231.9</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>152.9</v>
+        <v>146</v>
       </c>
       <c r="C3" t="n">
-        <v>326</v>
+        <v>354.7</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
         <v>183.9</v>
       </c>
       <c r="C4" t="n">
-        <v>313.9</v>
+        <v>296.1</v>
       </c>
     </row>
     <row r="5">
